--- a/log4j_config_analysis.xlsx
+++ b/log4j_config_analysis.xlsx
@@ -14,321 +14,234 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="76">
   <si>
     <t>Mã cấu hình</t>
   </si>
   <si>
-    <t>Giá trị</t>
-  </si>
-  <si>
-    <t>Giải thích</t>
+    <t>Tên cấu hình</t>
+  </si>
+  <si>
+    <t>Giải thích cấu hình</t>
   </si>
   <si>
     <t>log4j.rootLogger</t>
   </si>
   <si>
-    <t>log4j.logger.org.apache</t>
-  </si>
-  <si>
-    <t>log4j.logger.org.apache.cxf</t>
-  </si>
-  <si>
-    <t>log4j.additivity.org.apache.cxf</t>
-  </si>
-  <si>
-    <t>log4j.logger.org.apache.myfaces</t>
-  </si>
-  <si>
-    <t>log4j.logger.com.sun.faces</t>
-  </si>
-  <si>
-    <t>log4j.logger.javax.faces</t>
-  </si>
-  <si>
-    <t>log4j.logger.errorLogger</t>
-  </si>
-  <si>
-    <t>log4j.additivity.errorLogger</t>
-  </si>
-  <si>
-    <t>log4j.logger.performanceLogger</t>
-  </si>
-  <si>
-    <t>log4j.additivity.performanceLogger</t>
-  </si>
-  <si>
-    <t>log4j.logger.com.viettel.fw.common.aop.logging</t>
-  </si>
-  <si>
-    <t>log4j.additivity.viettel.fw.common.aop.logging</t>
-  </si>
-  <si>
-    <t>log4j.logger.com.viettel.web.common.service</t>
-  </si>
-  <si>
-    <t>log4j.additivity.com.viettel.web.common.service</t>
-  </si>
-  <si>
-    <t>log4j.logger.net.ttddyy.dsproxy.listener.CommonsQueryLoggingListener</t>
-  </si>
-  <si>
-    <t>log4j.additivity.net.ttddyy.dsproxy.listener.CommonsQueryLoggingListener</t>
-  </si>
-  <si>
-    <t>log4j.logger.com.viettel.fw.job</t>
-  </si>
-  <si>
-    <t>log4j.additivity.com.viettel.fw.job</t>
-  </si>
-  <si>
-    <t>log4j.appender.console</t>
-  </si>
-  <si>
-    <t>log4j.appender.console.layout</t>
-  </si>
-  <si>
-    <t>log4j.appender.console.layout.ConversionPattern</t>
-  </si>
-  <si>
-    <t>log4j.appender.hibernate</t>
-  </si>
-  <si>
-    <t>log4j.appender.hibernate.File</t>
-  </si>
-  <si>
-    <t>log4j.appender.hibernate.datePattern</t>
-  </si>
-  <si>
-    <t>log4j.appender.hibernate.layout</t>
-  </si>
-  <si>
-    <t>log4j.appender.hibernate.layout.ConversionPattern</t>
-  </si>
-  <si>
-    <t>log4j.appender.hibernate.Threshold</t>
-  </si>
-  <si>
-    <t>log4j.appender.fileerr</t>
-  </si>
-  <si>
-    <t>log4j.appender.fileerr.File</t>
-  </si>
-  <si>
-    <t>log4j.appender.fileerr.datePattern</t>
-  </si>
-  <si>
-    <t>log4j.appender.fileerr.layout</t>
-  </si>
-  <si>
-    <t>log4j.appender.fileerr.layout.ConversionPattern</t>
-  </si>
-  <si>
-    <t>log4j.appender.fileerr.Threshold</t>
-  </si>
-  <si>
-    <t>log4j.appender.filelogging</t>
-  </si>
-  <si>
-    <t>log4j.appender.filelogging.File</t>
-  </si>
-  <si>
-    <t>log4j.appender.filelogging.datePattern</t>
-  </si>
-  <si>
-    <t>log4j.appender.filelogging.layout</t>
-  </si>
-  <si>
-    <t>log4j.appender.filelogging.layout.ConversionPattern</t>
-  </si>
-  <si>
-    <t>log4j.appender.filelogging.Threshold</t>
-  </si>
-  <si>
-    <t>log4j.appender.performance</t>
-  </si>
-  <si>
-    <t>log4j.appender.performance.File</t>
-  </si>
-  <si>
-    <t>log4j.appender.performance.datePattern</t>
-  </si>
-  <si>
-    <t>log4j.appender.performance.layout</t>
-  </si>
-  <si>
-    <t>log4j.appender.performance.layout.ConversionPattern</t>
-  </si>
-  <si>
-    <t>log4j.appender.performance.Threshold</t>
-  </si>
-  <si>
-    <t>log4j.logger.AnypayLog</t>
-  </si>
-  <si>
-    <t>log4j.additivity.AnypayLog</t>
-  </si>
-  <si>
-    <t>log4j.appender.anypay</t>
-  </si>
-  <si>
-    <t>log4j.appender.anypay.File</t>
-  </si>
-  <si>
-    <t>log4j.appender.anypay.datePattern</t>
-  </si>
-  <si>
-    <t>log4j.appender.anypay.layout</t>
-  </si>
-  <si>
-    <t>log4j.appender.anypay.Threshold</t>
-  </si>
-  <si>
-    <t>log4j.appender.anypay.layout.ConversionPattern</t>
-  </si>
-  <si>
-    <t>DEBUG,console,fileerr</t>
-  </si>
-  <si>
-    <t>OFF</t>
-  </si>
-  <si>
-    <t>ERROR,console,fileerr</t>
+    <t>log4j.appender.stdout</t>
+  </si>
+  <si>
+    <t>log4j.appender.stdout.layout</t>
+  </si>
+  <si>
+    <t>log4j.appender.stdout.layout.ConversionPattern</t>
+  </si>
+  <si>
+    <t>log4j.appender.kafkaAppender</t>
+  </si>
+  <si>
+    <t>log4j.appender.kafkaAppender.DatePattern</t>
+  </si>
+  <si>
+    <t>log4j.appender.kafkaAppender.File</t>
+  </si>
+  <si>
+    <t>log4j.appender.kafkaAppender.layout</t>
+  </si>
+  <si>
+    <t>log4j.appender.kafkaAppender.layout.ConversionPattern</t>
+  </si>
+  <si>
+    <t>log4j.appender.stateChangeAppender</t>
+  </si>
+  <si>
+    <t>log4j.appender.stateChangeAppender.DatePattern</t>
+  </si>
+  <si>
+    <t>log4j.appender.stateChangeAppender.File</t>
+  </si>
+  <si>
+    <t>log4j.appender.stateChangeAppender.layout</t>
+  </si>
+  <si>
+    <t>log4j.appender.stateChangeAppender.layout.ConversionPattern</t>
+  </si>
+  <si>
+    <t>log4j.appender.requestAppender</t>
+  </si>
+  <si>
+    <t>log4j.appender.requestAppender.DatePattern</t>
+  </si>
+  <si>
+    <t>log4j.appender.requestAppender.File</t>
+  </si>
+  <si>
+    <t>log4j.appender.requestAppender.layout</t>
+  </si>
+  <si>
+    <t>log4j.appender.requestAppender.layout.ConversionPattern</t>
+  </si>
+  <si>
+    <t>log4j.appender.cleanerAppender</t>
+  </si>
+  <si>
+    <t>log4j.appender.cleanerAppender.DatePattern</t>
+  </si>
+  <si>
+    <t>log4j.appender.cleanerAppender.File</t>
+  </si>
+  <si>
+    <t>log4j.appender.cleanerAppender.layout</t>
+  </si>
+  <si>
+    <t>log4j.appender.cleanerAppender.layout.ConversionPattern</t>
+  </si>
+  <si>
+    <t>log4j.appender.controllerAppender</t>
+  </si>
+  <si>
+    <t>log4j.appender.controllerAppender.DatePattern</t>
+  </si>
+  <si>
+    <t>log4j.appender.controllerAppender.File</t>
+  </si>
+  <si>
+    <t>log4j.appender.controllerAppender.layout</t>
+  </si>
+  <si>
+    <t>log4j.appender.controllerAppender.layout.ConversionPattern</t>
+  </si>
+  <si>
+    <t>log4j.appender.authorizerAppender</t>
+  </si>
+  <si>
+    <t>log4j.appender.authorizerAppender.DatePattern</t>
+  </si>
+  <si>
+    <t>log4j.appender.authorizerAppender.File</t>
+  </si>
+  <si>
+    <t>log4j.appender.authorizerAppender.layout</t>
+  </si>
+  <si>
+    <t>log4j.appender.authorizerAppender.layout.ConversionPattern</t>
+  </si>
+  <si>
+    <t>log4j.logger.org.apache.zookeeper</t>
+  </si>
+  <si>
+    <t>log4j.logger.kafka</t>
+  </si>
+  <si>
+    <t>log4j.logger.org.apache.kafka</t>
+  </si>
+  <si>
+    <t>log4j.logger.kafka.request.logger</t>
+  </si>
+  <si>
+    <t>log4j.additivity.kafka.request.logger</t>
+  </si>
+  <si>
+    <t>log4j.logger.kafka.network.RequestChannel$</t>
+  </si>
+  <si>
+    <t>log4j.additivity.kafka.network.RequestChannel$</t>
+  </si>
+  <si>
+    <t>log4j.logger.org.apache.kafka.controller</t>
+  </si>
+  <si>
+    <t>log4j.additivity.org.apache.kafka.controller</t>
+  </si>
+  <si>
+    <t>log4j.logger.kafka.controller</t>
+  </si>
+  <si>
+    <t>log4j.additivity.kafka.controller</t>
+  </si>
+  <si>
+    <t>log4j.logger.kafka.log.LogCleaner</t>
+  </si>
+  <si>
+    <t>log4j.additivity.kafka.log.LogCleaner</t>
+  </si>
+  <si>
+    <t>log4j.logger.state.change.logger</t>
+  </si>
+  <si>
+    <t>log4j.additivity.state.change.logger</t>
+  </si>
+  <si>
+    <t>log4j.logger.kafka.authorizer.logger</t>
+  </si>
+  <si>
+    <t>log4j.additivity.kafka.authorizer.logger</t>
+  </si>
+  <si>
+    <t>INFO, stdout, kafkaAppender</t>
+  </si>
+  <si>
+    <t>org.apache.log4j.ConsoleAppender</t>
+  </si>
+  <si>
+    <t>org.apache.log4j.PatternLayout</t>
+  </si>
+  <si>
+    <t>[%d] %p %m (%c)%n</t>
+  </si>
+  <si>
+    <t>org.apache.log4j.DailyRollingFileAppender</t>
+  </si>
+  <si>
+    <t>'.'yyyy-MM-dd-HH</t>
+  </si>
+  <si>
+    <t>${kafka.logs.dir}/server.log</t>
+  </si>
+  <si>
+    <t>${kafka.logs.dir}/state-change.log</t>
+  </si>
+  <si>
+    <t>${kafka.logs.dir}/kafka-request.log</t>
+  </si>
+  <si>
+    <t>${kafka.logs.dir}/log-cleaner.log</t>
+  </si>
+  <si>
+    <t>${kafka.logs.dir}/controller.log</t>
+  </si>
+  <si>
+    <t>${kafka.logs.dir}/kafka-authorizer.log</t>
+  </si>
+  <si>
+    <t>INFO</t>
+  </si>
+  <si>
+    <t>WARN, requestAppender</t>
   </si>
   <si>
     <t>false</t>
   </si>
   <si>
-    <t>ERROR</t>
-  </si>
-  <si>
-    <t>INFO,console,performance</t>
-  </si>
-  <si>
-    <t>DEBUG,filelogging</t>
-  </si>
-  <si>
-    <t>INFO,console,hibernate</t>
-  </si>
-  <si>
-    <t>DEBUG, console</t>
-  </si>
-  <si>
-    <t>org.apache.log4j.ConsoleAppender</t>
-  </si>
-  <si>
-    <t>org.apache.log4j.PatternLayout</t>
-  </si>
-  <si>
-    <t>[%5p] [%t %d{hh:mm:ss}] (%F:%M:%L) %m%n</t>
-  </si>
-  <si>
-    <t>org.apache.log4j.DailyRollingFileAppender</t>
-  </si>
-  <si>
-    <t>${catalina.base}/logs/hibernate/hibernate.log</t>
-  </si>
-  <si>
-    <t>'.'yyyyMMddHH</t>
-  </si>
-  <si>
-    <t>%d{dd/MM/yyyy HH:mm:ss}|%m%n</t>
-  </si>
-  <si>
-    <t>DEBUG</t>
-  </si>
-  <si>
-    <t>${catalina.base}/logs/error/error.log</t>
-  </si>
-  <si>
-    <t>%d{dd/MM/yyyy HH:mm:ss} %5p [%t] %c{1}: %m%n</t>
-  </si>
-  <si>
-    <t>${catalina.base}/logs/actions/traceaction.log</t>
-  </si>
-  <si>
-    <t>%m%n</t>
-  </si>
-  <si>
-    <t>INFO</t>
-  </si>
-  <si>
-    <t>${catalina.base}/logs/performance/performance.log</t>
-  </si>
-  <si>
-    <t>INFO,anypay</t>
-  </si>
-  <si>
-    <t>${catalina.base}/logs/anypay/anypayLog.log</t>
-  </si>
-  <si>
-    <t>'.'yyyy-MM-dd</t>
-  </si>
-  <si>
-    <t>Thiết lập mức độ log mặc định và các appender được sử dụng cho log chính.</t>
-  </si>
-  <si>
-    <t>Thiết lập mức log cho namespace 'org.apache' với các appender cụ thể.</t>
-  </si>
-  <si>
-    <t>Thiết lập mức log cho namespace 'org.apache.cxf' với các appender cụ thể.</t>
-  </si>
-  <si>
-    <t>Điều khiển additivity cho namespace 'org.apache.cxf'; nếu đặt là false, log sẽ không kế thừa từ logger cha.</t>
-  </si>
-  <si>
-    <t>Thiết lập mức log cho namespace 'org.apache.myfaces' với các appender cụ thể.</t>
-  </si>
-  <si>
-    <t>Thiết lập mức log cho namespace 'com.sun.faces' với các appender cụ thể.</t>
-  </si>
-  <si>
-    <t>Thiết lập mức log cho namespace 'javax.faces' với các appender cụ thể.</t>
-  </si>
-  <si>
-    <t>Thiết lập mức log cho namespace 'errorLogger' với các appender cụ thể.</t>
-  </si>
-  <si>
-    <t>Điều khiển additivity cho namespace 'errorLogger'; nếu đặt là false, log sẽ không kế thừa từ logger cha.</t>
-  </si>
-  <si>
-    <t>Thiết lập mức log cho namespace 'performanceLogger' với các appender cụ thể.</t>
-  </si>
-  <si>
-    <t>Điều khiển additivity cho namespace 'performanceLogger'; nếu đặt là false, log sẽ không kế thừa từ logger cha.</t>
-  </si>
-  <si>
-    <t>Thiết lập mức log cho namespace 'com.viettel.fw.common.aop.logging ' với các appender cụ thể.</t>
-  </si>
-  <si>
-    <t>Điều khiển additivity cho namespace 'viettel.fw.common.aop.logging'; nếu đặt là false, log sẽ không kế thừa từ logger cha.</t>
-  </si>
-  <si>
-    <t>Thiết lập mức log cho namespace 'com.viettel.web.common.service ' với các appender cụ thể.</t>
-  </si>
-  <si>
-    <t>Điều khiển additivity cho namespace 'com.viettel.web.common.service'; nếu đặt là false, log sẽ không kế thừa từ logger cha.</t>
-  </si>
-  <si>
-    <t>Thiết lập mức log cho namespace 'net.ttddyy.dsproxy.listener.CommonsQueryLoggingListener' với các appender cụ thể.</t>
-  </si>
-  <si>
-    <t>Điều khiển additivity cho namespace 'net.ttddyy.dsproxy.listener.CommonsQueryLoggingListener'; nếu đặt là false, log sẽ không kế thừa từ logger cha.</t>
-  </si>
-  <si>
-    <t>Thiết lập mức log cho namespace 'com.viettel.fw.job' với các appender cụ thể.</t>
-  </si>
-  <si>
-    <t>Điều khiển additivity cho namespace 'com.viettel.fw.job'; nếu đặt là false, log sẽ không kế thừa từ logger cha.</t>
-  </si>
-  <si>
-    <t>Cấu hình log4j khác.</t>
-  </si>
-  <si>
-    <t>Thiết lập mức log cho namespace 'AnypayLog ' với các appender cụ thể.</t>
-  </si>
-  <si>
-    <t>Điều khiển additivity cho namespace 'AnypayLog'; nếu đặt là false, log sẽ không kế thừa từ logger cha.</t>
+    <t>INFO, controllerAppender</t>
+  </si>
+  <si>
+    <t>TRACE, controllerAppender</t>
+  </si>
+  <si>
+    <t>INFO, cleanerAppender</t>
+  </si>
+  <si>
+    <t>INFO, stateChangeAppender</t>
+  </si>
+  <si>
+    <t>INFO, authorizerAppender</t>
+  </si>
+  <si>
+    <t>Cấu hình mức độ ghi log và các appender chính.</t>
+  </si>
+  <si>
+    <t>Không có mô tả cụ thể cho cấu hình này.</t>
   </si>
 </sst>
 </file>
@@ -686,7 +599,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C55"/>
+  <dimension ref="A1:C52"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -708,10 +621,10 @@
         <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="C2" t="s">
-        <v>83</v>
+        <v>74</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -719,10 +632,10 @@
         <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="C3" t="s">
-        <v>84</v>
+        <v>75</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -730,10 +643,10 @@
         <v>5</v>
       </c>
       <c r="B4" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="C4" t="s">
-        <v>85</v>
+        <v>75</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -741,10 +654,10 @@
         <v>6</v>
       </c>
       <c r="B5" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="C5" t="s">
-        <v>86</v>
+        <v>75</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -752,10 +665,10 @@
         <v>7</v>
       </c>
       <c r="B6" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="C6" t="s">
-        <v>87</v>
+        <v>75</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -763,10 +676,10 @@
         <v>8</v>
       </c>
       <c r="B7" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C7" t="s">
-        <v>88</v>
+        <v>75</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -774,10 +687,10 @@
         <v>9</v>
       </c>
       <c r="B8" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C8" t="s">
-        <v>89</v>
+        <v>75</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -785,10 +698,10 @@
         <v>10</v>
       </c>
       <c r="B9" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="C9" t="s">
-        <v>90</v>
+        <v>75</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -796,10 +709,10 @@
         <v>11</v>
       </c>
       <c r="B10" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="C10" t="s">
-        <v>91</v>
+        <v>75</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -807,10 +720,10 @@
         <v>12</v>
       </c>
       <c r="B11" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="C11" t="s">
-        <v>92</v>
+        <v>75</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -818,10 +731,10 @@
         <v>13</v>
       </c>
       <c r="B12" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C12" t="s">
-        <v>93</v>
+        <v>75</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -829,10 +742,10 @@
         <v>14</v>
       </c>
       <c r="B13" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C13" t="s">
-        <v>94</v>
+        <v>75</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -840,10 +753,10 @@
         <v>15</v>
       </c>
       <c r="B14" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="C14" t="s">
-        <v>95</v>
+        <v>75</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -851,10 +764,10 @@
         <v>16</v>
       </c>
       <c r="B15" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C15" t="s">
-        <v>96</v>
+        <v>75</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -862,10 +775,10 @@
         <v>17</v>
       </c>
       <c r="B16" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C16" t="s">
-        <v>97</v>
+        <v>75</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -873,10 +786,10 @@
         <v>18</v>
       </c>
       <c r="B17" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="C17" t="s">
-        <v>98</v>
+        <v>75</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -884,10 +797,10 @@
         <v>19</v>
       </c>
       <c r="B18" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C18" t="s">
-        <v>99</v>
+        <v>75</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -895,10 +808,10 @@
         <v>20</v>
       </c>
       <c r="B19" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
       <c r="C19" t="s">
-        <v>100</v>
+        <v>75</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -906,10 +819,10 @@
         <v>21</v>
       </c>
       <c r="B20" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="C20" t="s">
-        <v>101</v>
+        <v>75</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -917,10 +830,10 @@
         <v>22</v>
       </c>
       <c r="B21" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="C21" t="s">
-        <v>102</v>
+        <v>75</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -928,10 +841,10 @@
         <v>23</v>
       </c>
       <c r="B22" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="C22" t="s">
-        <v>102</v>
+        <v>75</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -939,10 +852,10 @@
         <v>24</v>
       </c>
       <c r="B23" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="C23" t="s">
-        <v>102</v>
+        <v>75</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -950,10 +863,10 @@
         <v>25</v>
       </c>
       <c r="B24" t="s">
-        <v>69</v>
+        <v>56</v>
       </c>
       <c r="C24" t="s">
-        <v>102</v>
+        <v>75</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -961,10 +874,10 @@
         <v>26</v>
       </c>
       <c r="B25" t="s">
-        <v>70</v>
+        <v>57</v>
       </c>
       <c r="C25" t="s">
-        <v>102</v>
+        <v>75</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -972,10 +885,10 @@
         <v>27</v>
       </c>
       <c r="B26" t="s">
-        <v>71</v>
+        <v>58</v>
       </c>
       <c r="C26" t="s">
-        <v>102</v>
+        <v>75</v>
       </c>
     </row>
     <row r="27" spans="1:3">
@@ -983,10 +896,10 @@
         <v>28</v>
       </c>
       <c r="B27" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="C27" t="s">
-        <v>102</v>
+        <v>75</v>
       </c>
     </row>
     <row r="28" spans="1:3">
@@ -994,10 +907,10 @@
         <v>29</v>
       </c>
       <c r="B28" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="C28" t="s">
-        <v>102</v>
+        <v>75</v>
       </c>
     </row>
     <row r="29" spans="1:3">
@@ -1005,10 +918,10 @@
         <v>30</v>
       </c>
       <c r="B29" t="s">
-        <v>73</v>
+        <v>56</v>
       </c>
       <c r="C29" t="s">
-        <v>102</v>
+        <v>75</v>
       </c>
     </row>
     <row r="30" spans="1:3">
@@ -1016,10 +929,10 @@
         <v>31</v>
       </c>
       <c r="B30" t="s">
-        <v>69</v>
+        <v>57</v>
       </c>
       <c r="C30" t="s">
-        <v>102</v>
+        <v>75</v>
       </c>
     </row>
     <row r="31" spans="1:3">
@@ -1027,10 +940,10 @@
         <v>32</v>
       </c>
       <c r="B31" t="s">
-        <v>74</v>
+        <v>58</v>
       </c>
       <c r="C31" t="s">
-        <v>102</v>
+        <v>75</v>
       </c>
     </row>
     <row r="32" spans="1:3">
@@ -1038,10 +951,10 @@
         <v>33</v>
       </c>
       <c r="B32" t="s">
-        <v>71</v>
+        <v>59</v>
       </c>
       <c r="C32" t="s">
-        <v>102</v>
+        <v>75</v>
       </c>
     </row>
     <row r="33" spans="1:3">
@@ -1049,10 +962,10 @@
         <v>34</v>
       </c>
       <c r="B33" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C33" t="s">
-        <v>102</v>
+        <v>75</v>
       </c>
     </row>
     <row r="34" spans="1:3">
@@ -1060,10 +973,10 @@
         <v>35</v>
       </c>
       <c r="B34" t="s">
-        <v>75</v>
+        <v>56</v>
       </c>
       <c r="C34" t="s">
-        <v>102</v>
+        <v>75</v>
       </c>
     </row>
     <row r="35" spans="1:3">
@@ -1071,10 +984,10 @@
         <v>36</v>
       </c>
       <c r="B35" t="s">
-        <v>73</v>
+        <v>57</v>
       </c>
       <c r="C35" t="s">
-        <v>102</v>
+        <v>75</v>
       </c>
     </row>
     <row r="36" spans="1:3">
@@ -1082,10 +995,10 @@
         <v>37</v>
       </c>
       <c r="B36" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="C36" t="s">
-        <v>102</v>
+        <v>75</v>
       </c>
     </row>
     <row r="37" spans="1:3">
@@ -1093,10 +1006,10 @@
         <v>38</v>
       </c>
       <c r="B37" t="s">
-        <v>76</v>
+        <v>66</v>
       </c>
       <c r="C37" t="s">
-        <v>102</v>
+        <v>75</v>
       </c>
     </row>
     <row r="38" spans="1:3">
@@ -1104,10 +1017,10 @@
         <v>39</v>
       </c>
       <c r="B38" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="C38" t="s">
-        <v>102</v>
+        <v>75</v>
       </c>
     </row>
     <row r="39" spans="1:3">
@@ -1118,7 +1031,7 @@
         <v>67</v>
       </c>
       <c r="C39" t="s">
-        <v>102</v>
+        <v>75</v>
       </c>
     </row>
     <row r="40" spans="1:3">
@@ -1126,10 +1039,10 @@
         <v>41</v>
       </c>
       <c r="B40" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
       <c r="C40" t="s">
-        <v>102</v>
+        <v>75</v>
       </c>
     </row>
     <row r="41" spans="1:3">
@@ -1137,10 +1050,10 @@
         <v>42</v>
       </c>
       <c r="B41" t="s">
-        <v>78</v>
+        <v>67</v>
       </c>
       <c r="C41" t="s">
-        <v>102</v>
+        <v>75</v>
       </c>
     </row>
     <row r="42" spans="1:3">
@@ -1148,10 +1061,10 @@
         <v>43</v>
       </c>
       <c r="B42" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C42" t="s">
-        <v>102</v>
+        <v>75</v>
       </c>
     </row>
     <row r="43" spans="1:3">
@@ -1159,10 +1072,10 @@
         <v>44</v>
       </c>
       <c r="B43" t="s">
-        <v>79</v>
+        <v>69</v>
       </c>
       <c r="C43" t="s">
-        <v>102</v>
+        <v>75</v>
       </c>
     </row>
     <row r="44" spans="1:3">
@@ -1170,10 +1083,10 @@
         <v>45</v>
       </c>
       <c r="B44" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="C44" t="s">
-        <v>102</v>
+        <v>75</v>
       </c>
     </row>
     <row r="45" spans="1:3">
@@ -1181,10 +1094,10 @@
         <v>46</v>
       </c>
       <c r="B45" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="C45" t="s">
-        <v>102</v>
+        <v>75</v>
       </c>
     </row>
     <row r="46" spans="1:3">
@@ -1192,10 +1105,10 @@
         <v>47</v>
       </c>
       <c r="B46" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="C46" t="s">
-        <v>102</v>
+        <v>75</v>
       </c>
     </row>
     <row r="47" spans="1:3">
@@ -1203,10 +1116,10 @@
         <v>48</v>
       </c>
       <c r="B47" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C47" t="s">
-        <v>102</v>
+        <v>75</v>
       </c>
     </row>
     <row r="48" spans="1:3">
@@ -1214,10 +1127,10 @@
         <v>49</v>
       </c>
       <c r="B48" t="s">
-        <v>80</v>
+        <v>68</v>
       </c>
       <c r="C48" t="s">
-        <v>103</v>
+        <v>75</v>
       </c>
     </row>
     <row r="49" spans="1:3">
@@ -1225,10 +1138,10 @@
         <v>50</v>
       </c>
       <c r="B49" t="s">
-        <v>60</v>
+        <v>72</v>
       </c>
       <c r="C49" t="s">
-        <v>104</v>
+        <v>75</v>
       </c>
     </row>
     <row r="50" spans="1:3">
@@ -1236,10 +1149,10 @@
         <v>51</v>
       </c>
       <c r="B50" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C50" t="s">
-        <v>102</v>
+        <v>75</v>
       </c>
     </row>
     <row r="51" spans="1:3">
@@ -1247,10 +1160,10 @@
         <v>52</v>
       </c>
       <c r="B51" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="C51" t="s">
-        <v>102</v>
+        <v>75</v>
       </c>
     </row>
     <row r="52" spans="1:3">
@@ -1258,43 +1171,10 @@
         <v>53</v>
       </c>
       <c r="B52" t="s">
-        <v>82</v>
+        <v>68</v>
       </c>
       <c r="C52" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3">
-      <c r="A53" t="s">
-        <v>54</v>
-      </c>
-      <c r="B53" t="s">
-        <v>67</v>
-      </c>
-      <c r="C53" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3">
-      <c r="A54" t="s">
-        <v>55</v>
-      </c>
-      <c r="B54" t="s">
-        <v>78</v>
-      </c>
-      <c r="C54" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3">
-      <c r="A55" t="s">
-        <v>56</v>
-      </c>
-      <c r="B55" t="s">
-        <v>72</v>
-      </c>
-      <c r="C55" t="s">
-        <v>102</v>
+        <v>75</v>
       </c>
     </row>
   </sheetData>
